--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/15/seed4/result_data_RandomForest.xlsx
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.34349999999999</v>
+        <v>16.3736</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.146800000000004</v>
+        <v>-7.1412</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.8952</v>
+        <v>-21.8444</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.152300000000002</v>
+        <v>-7.177800000000003</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.451200000000003</v>
+        <v>-7.5711</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.12619999999999</v>
+        <v>16.0911</v>
       </c>
     </row>
     <row r="16">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.2915</v>
+        <v>-22.35380000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.3485</v>
+        <v>-19.32829999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.469299999999999</v>
+        <v>-8.569700000000003</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.89249999999999</v>
+        <v>-22.06799999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.816699999999999</v>
+        <v>-8.883900000000001</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.2811</v>
+        <v>-7.389499999999998</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.37040000000002</v>
+        <v>17.28890000000002</v>
       </c>
     </row>
     <row r="34">
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.21149999999999</v>
+        <v>-19.33759999999998</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.51009999999999</v>
+        <v>16.69180000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.732</v>
+        <v>-7.694400000000001</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,10 +1083,10 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.775199999999999</v>
+        <v>-7.502199999999998</v>
       </c>
       <c r="E38" t="n">
-        <v>16.32039999999999</v>
+        <v>16.26189999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.2849</v>
+        <v>17.24260000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.08929999999999</v>
+        <v>15.96939999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.008</v>
+        <v>16.1528</v>
       </c>
     </row>
     <row r="48">
@@ -1304,10 +1304,10 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.7439</v>
+        <v>-8.783000000000003</v>
       </c>
       <c r="E51" t="n">
-        <v>16.49119999999999</v>
+        <v>16.4189</v>
       </c>
     </row>
     <row r="52">
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.408699999999998</v>
+        <v>-7.387600000000003</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.827399999999995</v>
+        <v>-8.748500000000002</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.4718</v>
+        <v>16.52060000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>18.20550000000001</v>
+        <v>18.14740000000002</v>
       </c>
     </row>
     <row r="64">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.538</v>
+        <v>-21.5751</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.300899999999997</v>
+        <v>-7.205199999999998</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.441900000000002</v>
+        <v>-8.342400000000003</v>
       </c>
       <c r="E70" t="n">
-        <v>16.0812</v>
+        <v>16.74369999999999</v>
       </c>
     </row>
     <row r="71">
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.14609999999999</v>
+        <v>-19.96149999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.64709999999998</v>
+        <v>-20.54269999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.577000000000004</v>
+        <v>-7.840000000000003</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.8343</v>
+        <v>-21.82700000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.0528</v>
+        <v>-22.0486</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.505499999999998</v>
+        <v>-8.508600000000003</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.4464</v>
+        <v>16.46409999999999</v>
       </c>
     </row>
     <row r="89">
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.17259999999998</v>
+        <v>-21.32519999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.51740000000001</v>
+        <v>16.63020000000001</v>
       </c>
     </row>
     <row r="100">
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.848399999999999</v>
+        <v>-7.781299999999996</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
